--- a/schema/Sgt/issues_metadados_sgt.xlsx
+++ b/schema/Sgt/issues_metadados_sgt.xlsx
@@ -30895,7 +30895,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Total number of cells in schema</t>
+          <t>Total number of cells in schema (sum of columns x rows for each table)</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -31733,7 +31733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31782,6 +31782,26 @@
           <t>limit</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SUGGESTED_VALUE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>SUGGESTED_SOURCE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>SUGGESTED_CONFIDENCE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>SUGGESTED_DDL</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -31808,6 +31828,24 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>OCORRENCIA_DIA</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>ALTER TABLE SGT.OCORRENCIA_DIAS RENAME TO OCORRENCIA_DIA;</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -31834,6 +31872,24 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>OCORRENCIA_HORAS_EXTRA</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>ALTER TABLE SGT.OCORRENCIA_HORAS_EXTRAS RENAME TO OCORRENCIA_HORAS_EXTRA;</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -31864,6 +31920,24 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>DSC_NOTURNO</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>ALTER TABLE SGT.CAT_CONTRATO_AUDITORIA RENAME COLUMN ADI_NOTURNO TO DSC_NOTURNO;</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -31894,6 +31968,24 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>DSC_NOTURNO</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>ALTER TABLE SGT.CATEGORIA_CONTRATO RENAME COLUMN ADI_NOTURNO TO DSC_NOTURNO;</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -31924,6 +32016,24 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>NUM_VALOR</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>ALTER TABLE SGT.CATEGORIA_CONTRATO RENAME COLUMN VALOR TO NUM_VALOR;</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -31954,6 +32064,24 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>DSC_NOTURNO</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>ALTER TABLE SGT.CATEGORIA_CONTRATO_AUDITORIA RENAME COLUMN ADI_NOTURNO TO DSC_NOTURNO;</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -31984,6 +32112,24 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>NUM_TIMESTAMP</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ALTER TABLE SGT.REVISAO_AUDITORIA RENAME COLUMN TIMESTAMP TO NUM_TIMESTAMP;</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -32014,6 +32160,24 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Valor de vale alimentacao diario.</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.CAT_CONTRATO_AUDITORIA.VLR_VALE_ALIMENTACAO_DIARIO IS 'Valor de vale alimentacao diario.';</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -32044,6 +32208,24 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Valor de vale transporte diario.</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.CAT_CONTRATO_AUDITORIA.VLR_VALE_TRANSPORTE_DIARIO IS 'Valor de vale transporte diario.';</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -32074,6 +32256,24 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Valor de vale alimentacao diario.</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.CATEGORIA_CONTRATO.VLR_VALE_ALIMENTACAO_DIARIO IS 'Valor de vale alimentacao diario.';</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -32104,6 +32304,24 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Valor de vale transporte diario.</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.CATEGORIA_CONTRATO.VLR_VALE_TRANSPORTE_DIARIO IS 'Valor de vale transporte diario.';</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -32134,6 +32352,24 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Descricao de valor.</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.CATEGORIA_CONTRATO.VALOR IS 'Descricao de valor.';</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -32164,6 +32400,24 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Valor de vale alimentacao diario.</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.CATEGORIA_CONTRATO_AUDITORIA.VLR_VALE_ALIMENTACAO_DIARIO IS 'Valor de vale alimentacao diario.';</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -32194,6 +32448,24 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Valor de vale transporte diario.</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.CATEGORIA_CONTRATO_AUDITORIA.VLR_VALE_TRANSPORTE_DIARIO IS 'Valor de vale transporte diario.';</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -32224,6 +32496,24 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Descricao de noturno.</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.CATEGORIA_CONTRATO_AUDITORIA.ADI_NOTURNO IS 'Descricao de noturno.';</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -32254,6 +32544,24 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Valor de outras vantagens.</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.CATEGORIA_CONTRATO_AUDITORIA.VLR_OUTRAS_VANTAGENS IS 'Valor de outras vantagens.';</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -32284,6 +32592,24 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Valor de taxa sindical adicional no.</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.CATEGORIA_CONTRATO_AUDITORIA.VLR_TAXA_SINDICAL_ADICIONAL_NO IS 'Valor de taxa sindical adicional no.';</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -32314,6 +32640,24 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Valor de percentual retencao.</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.CATEGORIA_CONTRATO_AUDITORIA.VLR_PERCENTUAL_RETENCAO IS 'Valor de percentual retencao.';</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -32344,6 +32688,24 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Valor de adicional periculosidade.</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.CATEGORIA_CONTRATO_AUDITORIA.VLR_ADICIONAL_PERICULOSIDADE IS 'Valor de adicional periculosidade.';</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -32374,6 +32736,24 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Sequencia de contrato aditivo.</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.CONTRATO_ADITIVO_AUDITORIA.SEQ_CONTRATO_ADITIVO IS 'Sequencia de contrato aditivo.';</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -32404,6 +32784,24 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Sequencia de diaria.</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.DIARIA.SEQ_DIARIA IS 'Sequencia de diaria.';</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -32434,6 +32832,24 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Sequencia de revisao.</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.DIARIA_ANEXO_AUDITORIA.SEQ_REVISAO IS 'Sequencia de revisao.';</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -32464,6 +32880,24 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Codigo de revisao.</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.DIARIA_ANEXO_AUDITORIA.COD_REVISAO IS 'Codigo de revisao.';</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -32494,6 +32928,24 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Conteudo binario de anexo.</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.DIARIA_ANEXO_AUDITORIA.BIN_ANEXO IS 'Conteudo binario de anexo.';</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -32524,6 +32976,24 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Nome de anexo.</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.DIARIA_ANEXO_AUDITORIA.NOM_ANEXO IS 'Nome de anexo.';</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -32554,6 +33024,24 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Sequencia de diaria anexo.</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.DIARIA_ANEXO_AUDITORIA.SEQ_DIARIA_ANEXO IS 'Sequencia de diaria anexo.';</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -32584,6 +33072,24 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Data de dia.</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.OCORRENCIA_ADI_NOT_AUDITORIA.DAT_DIA IS 'Data de dia.';</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -32614,6 +33120,24 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Data de inclusao.</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.OCORRENCIA_ADI_NOT_AUDITORIA.DAT_INCLUSAO IS 'Data de inclusao.';</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -32644,6 +33168,24 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Data de inclusao.</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.OCORRENCIA_ADICIONAL_NOTURNO.DAT_INCLUSAO IS 'Data de inclusao.';</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -32674,6 +33216,24 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Codigo de revisao.</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.OCORRENCIA_ANEXO_AUDITORIA.COD_REVISAO IS 'Codigo de revisao.';</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -32704,6 +33264,24 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Codigo de revisao.</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.OCORRENCIA_AUDITORIA.COD_REVISAO IS 'Codigo de revisao.';</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -32734,6 +33312,24 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Data de inclusao.</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.OCORRENCIA_AUDITORIA.DAT_INCLUSAO IS 'Data de inclusao.';</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -32764,6 +33360,24 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Codigo de tipo ocorrencia.</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.OCORRENCIA_DIAS_AUDITORIA.COD_TIPO_OCORRENCIA IS 'Codigo de tipo ocorrencia.';</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -32794,6 +33408,24 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Data de inclusao.</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.OCORRENCIA_DIAS_AUDITORIA.DAT_INCLUSAO IS 'Data de inclusao.';</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -32824,6 +33456,24 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Data de dia.</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.OCORRENCIA_HORAS_EXTRAS.DAT_DIA IS 'Data de dia.';</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -32854,6 +33504,24 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Texto de is feriado municipal.</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.OCORRENCIA_HORAS_EXTRAS.TXT_IS_FERIADO_MUNICIPAL IS 'Texto de is feriado municipal.';</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -32884,6 +33552,24 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Data de inclusao.</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.OCORRENCIA_HORAS_EXTRAS.DAT_INCLUSAO IS 'Data de inclusao.';</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -32914,6 +33600,24 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Texto de complemento endereco.</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.TERCEIRO.TXT_COMPLEMENTO_ENDERECO IS 'Texto de complemento endereco.';</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -32944,6 +33648,24 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Texto de bairro.</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.TERCEIRO.TXT_BAIRRO IS 'Texto de bairro.';</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -32974,6 +33696,24 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Nome de parentesco.</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.TERCEIRO.NOM_PARENTESCO IS 'Nome de parentesco.';</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -33004,6 +33744,24 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Numero de endereco.</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.TERCEIRO.NUM_ENDERECO IS 'Numero de endereco.';</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -33034,6 +33792,24 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Texto de complemento endereco.</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.TERCEIRO_AUDITORIA.TXT_COMPLEMENTO_ENDERECO IS 'Texto de complemento endereco.';</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -33064,6 +33840,24 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Texto de bairro.</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.TERCEIRO_AUDITORIA.TXT_BAIRRO IS 'Texto de bairro.';</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -33094,6 +33888,24 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Nome de parentesco.</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.TERCEIRO_AUDITORIA.NOM_PARENTESCO IS 'Nome de parentesco.';</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -33124,6 +33936,24 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Numero de endereco.</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.TERCEIRO_AUDITORIA.NUM_ENDERECO IS 'Numero de endereco.';</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -33154,6 +33984,24 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Codigo de naturalidade cidade.</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.TERCEIRO_AUDITORIA.COD_NATURALIDADE_CIDADE IS 'Codigo de naturalidade cidade.';</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -33184,6 +34032,24 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Codigo de naturalidade estado.</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.TERCEIRO_AUDITORIA.COD_NATURALIDADE_ESTADO IS 'Codigo de naturalidade estado.';</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -33214,6 +34080,24 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Codigo de uf.</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.TRIBUTO_MUNICIPIO.COD_UF IS 'Codigo de uf.';</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -33244,6 +34128,24 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Codigo de uf.</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.TRIBUTO_MUNICIPIO_AUDITORIA.COD_UF IS 'Codigo de uf.';</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -33274,6 +34176,24 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Data de admissao.</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.VINCULO.DAT_ADMISSAO IS 'Data de admissao.';</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -33304,6 +34224,24 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Data de demissao.</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.VINCULO.DAT_DEMISSAO IS 'Data de demissao.';</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -33334,6 +34272,24 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Data de demissao.</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.VINCULO_AUDITORIA.DAT_DEMISSAO IS 'Data de demissao.';</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -33364,6 +34320,24 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Data de admissao.</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>RULES</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>COMMENT ON COLUMN SGT.VINCULO_AUDITORIA.DAT_ADMISSAO IS 'Data de admissao.';</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
